--- a/TimeTracking/obj/Release/Package/PackageTmp/Template/Employee-Weekly-Timesheet.xlsx
+++ b/TimeTracking/obj/Release/Package/PackageTmp/Template/Employee-Weekly-Timesheet.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AF$35</definedName>
@@ -809,7 +807,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="000"/>
-    <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1904,6 +1902,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1912,88 +1942,302 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2009,270 +2253,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2745,7 +2743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2776,65 +2774,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="96"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="125"/>
     </row>
     <row r="2" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="97" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
       <c r="T2" s="39"/>
       <c r="U2" s="40"/>
       <c r="V2" s="40"/>
@@ -2842,39 +2840,39 @@
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
       <c r="Z2" s="42"/>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="103"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="132"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="99" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
       <c r="T3" s="43"/>
       <c r="U3" s="43"/>
       <c r="V3" s="43"/>
@@ -2882,141 +2880,141 @@
       <c r="X3" s="43"/>
       <c r="Y3" s="43"/>
       <c r="Z3" s="44"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="105"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="134"/>
     </row>
     <row r="4" spans="1:32" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="122" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="92" t="s">
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="115"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="144"/>
     </row>
     <row r="5" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="164" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="167" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="170"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="69"/>
     </row>
     <row r="6" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="129" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="133" t="s">
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="141" t="s">
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="142" t="s">
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="143"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="143"/>
-      <c r="AD6" s="143"/>
-      <c r="AE6" s="144"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="93"/>
       <c r="AF6" s="4" t="s">
         <v>9</v>
       </c>
@@ -3031,10 +3029,10 @@
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="130"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3115,510 +3113,510 @@
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="47"/>
       <c r="H8" s="48"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="102"/>
       <c r="N8" s="48"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="140"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="120"/>
       <c r="T8" s="50"/>
       <c r="U8" s="49"/>
       <c r="V8" s="49"/>
       <c r="W8" s="49"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="146"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="95"/>
       <c r="Z8" s="48"/>
       <c r="AA8" s="49"/>
       <c r="AB8" s="49"/>
       <c r="AC8" s="49"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="146"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="95"/>
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="51"/>
       <c r="H9" s="52"/>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="85"/>
       <c r="N9" s="52"/>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="149"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="87"/>
       <c r="T9" s="54"/>
       <c r="U9" s="53"/>
       <c r="V9" s="53"/>
       <c r="W9" s="53"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="65"/>
       <c r="Z9" s="52"/>
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
       <c r="AC9" s="53"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="65"/>
       <c r="AF9" s="22"/>
     </row>
     <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="51"/>
       <c r="H10" s="52"/>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="52"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="149"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="87"/>
       <c r="T10" s="54"/>
       <c r="U10" s="53"/>
       <c r="V10" s="53"/>
       <c r="W10" s="53"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="57"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
       <c r="Z10" s="52"/>
       <c r="AA10" s="53"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="53"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65"/>
       <c r="AF10" s="22"/>
     </row>
     <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="51"/>
       <c r="H11" s="52"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="52"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="149"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87"/>
       <c r="T11" s="54"/>
       <c r="U11" s="53"/>
       <c r="V11" s="53"/>
       <c r="W11" s="53"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="65"/>
       <c r="Z11" s="52"/>
       <c r="AA11" s="53"/>
       <c r="AB11" s="53"/>
       <c r="AC11" s="53"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
       <c r="AF11" s="22"/>
     </row>
     <row r="12" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="51"/>
       <c r="H12" s="52"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="52"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="149"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="87"/>
       <c r="T12" s="54"/>
       <c r="U12" s="53"/>
       <c r="V12" s="53"/>
       <c r="W12" s="53"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="85"/>
       <c r="Z12" s="52"/>
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
       <c r="AC12" s="53"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="85"/>
       <c r="AF12" s="22"/>
     </row>
     <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="55"/>
       <c r="H13" s="52"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
       <c r="N13" s="52"/>
       <c r="O13" s="53"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="151"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="67"/>
       <c r="T13" s="54"/>
       <c r="U13" s="53"/>
       <c r="V13" s="53"/>
       <c r="W13" s="53"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="57"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
       <c r="Z13" s="52"/>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
       <c r="AC13" s="53"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="65"/>
       <c r="AF13" s="22"/>
     </row>
     <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="55"/>
       <c r="H14" s="52"/>
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
       <c r="N14" s="52"/>
       <c r="O14" s="53"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="151"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
       <c r="T14" s="54"/>
       <c r="U14" s="53"/>
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="57"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="65"/>
       <c r="Z14" s="52"/>
       <c r="AA14" s="53"/>
       <c r="AB14" s="53"/>
       <c r="AC14" s="53"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="65"/>
       <c r="AF14" s="22"/>
     </row>
     <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="154"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="55"/>
       <c r="H15" s="52"/>
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
       <c r="N15" s="52"/>
       <c r="O15" s="53"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="151"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="67"/>
       <c r="T15" s="54"/>
       <c r="U15" s="53"/>
       <c r="V15" s="53"/>
       <c r="W15" s="53"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="57"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="65"/>
       <c r="Z15" s="52"/>
       <c r="AA15" s="53"/>
       <c r="AB15" s="53"/>
       <c r="AC15" s="53"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="65"/>
       <c r="AF15" s="22"/>
     </row>
     <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="154"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="55"/>
       <c r="H16" s="52"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
       <c r="N16" s="52"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="151"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="67"/>
       <c r="T16" s="54"/>
       <c r="U16" s="53"/>
       <c r="V16" s="53"/>
       <c r="W16" s="53"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="57"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="65"/>
       <c r="Z16" s="52"/>
       <c r="AA16" s="53"/>
       <c r="AB16" s="53"/>
       <c r="AC16" s="53"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="65"/>
       <c r="AF16" s="22"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="154"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="55"/>
       <c r="H17" s="52"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="K17" s="53"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="151"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="67"/>
       <c r="T17" s="54"/>
       <c r="U17" s="53"/>
       <c r="V17" s="53"/>
       <c r="W17" s="53"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="57"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="65"/>
       <c r="Z17" s="52"/>
       <c r="AA17" s="53"/>
       <c r="AB17" s="53"/>
       <c r="AC17" s="53"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="65"/>
       <c r="AF17" s="22"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="154"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="55"/>
       <c r="H18" s="52"/>
       <c r="I18" s="53"/>
       <c r="J18" s="53"/>
       <c r="K18" s="53"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
       <c r="N18" s="52"/>
       <c r="O18" s="53"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="151"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="67"/>
       <c r="T18" s="54"/>
       <c r="U18" s="53"/>
       <c r="V18" s="53"/>
       <c r="W18" s="53"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="57"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="65"/>
       <c r="Z18" s="52"/>
       <c r="AA18" s="53"/>
       <c r="AB18" s="53"/>
       <c r="AC18" s="53"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="65"/>
       <c r="AF18" s="22"/>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="154"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="55"/>
       <c r="H19" s="52"/>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
       <c r="K19" s="53"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="57"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
       <c r="N19" s="52"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
-      <c r="R19" s="150"/>
-      <c r="S19" s="151"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="67"/>
       <c r="T19" s="54"/>
       <c r="U19" s="53"/>
       <c r="V19" s="53"/>
       <c r="W19" s="53"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="57"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="65"/>
       <c r="Z19" s="52"/>
       <c r="AA19" s="53"/>
       <c r="AB19" s="53"/>
       <c r="AC19" s="53"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="65"/>
       <c r="AF19" s="22"/>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="154"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="55"/>
       <c r="H20" s="52"/>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
       <c r="N20" s="52"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
       <c r="Q20" s="53"/>
-      <c r="R20" s="150"/>
-      <c r="S20" s="151"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="67"/>
       <c r="T20" s="54"/>
       <c r="U20" s="53"/>
       <c r="V20" s="53"/>
       <c r="W20" s="53"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="57"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="52"/>
       <c r="AA20" s="53"/>
       <c r="AB20" s="53"/>
       <c r="AC20" s="53"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="65"/>
       <c r="AF20" s="22"/>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="55"/>
       <c r="H21" s="52"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="57"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="52"/>
       <c r="O21" s="53"/>
       <c r="P21" s="53"/>
       <c r="Q21" s="53"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="151"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="67"/>
       <c r="T21" s="54"/>
       <c r="U21" s="53"/>
       <c r="V21" s="53"/>
       <c r="W21" s="53"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="57"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="65"/>
       <c r="Z21" s="52"/>
       <c r="AA21" s="53"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="53"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="65"/>
       <c r="AF21" s="22"/>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="55"/>
       <c r="H22" s="52"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="52"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
-      <c r="R22" s="150"/>
-      <c r="S22" s="151"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="67"/>
       <c r="T22" s="54"/>
       <c r="U22" s="53"/>
       <c r="V22" s="53"/>
       <c r="W22" s="53"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="57"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="65"/>
       <c r="Z22" s="52"/>
       <c r="AA22" s="53"/>
       <c r="AB22" s="53"/>
       <c r="AC22" s="53"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="65"/>
       <c r="AF22" s="22"/>
     </row>
     <row r="23" spans="1:32" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3665,36 +3663,36 @@
       <c r="E24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="30"/>
       <c r="S24" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T24" s="58"/>
-      <c r="U24" s="169"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="68"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="58"/>
       <c r="Y24" s="30"/>
       <c r="Z24" s="30"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="169"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
       <c r="AF24" s="45"/>
     </row>
     <row r="25" spans="1:32" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3739,40 +3737,40 @@
       <c r="E26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="68"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="30"/>
       <c r="S26" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="58"/>
-      <c r="U26" s="169"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="69" t="s">
+      <c r="T26" s="59"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="71">
+      <c r="Z26" s="166"/>
+      <c r="AA26" s="167">
         <f>H24+O24+V24+AC24+H26+O26+V26</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="73"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="168"/>
+      <c r="AD26" s="169"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="46">
         <f>SUM(AF8:AF22)</f>
@@ -3814,307 +3812,419 @@
       <c r="AF27" s="36"/>
     </row>
     <row r="28" spans="1:32" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="162" t="s">
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="163" t="s">
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="163"/>
+      <c r="R28" s="73"/>
       <c r="S28" s="38"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="163" t="s">
+      <c r="U28" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="V28" s="163"/>
+      <c r="V28" s="73"/>
       <c r="W28" s="38"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="74"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="157"/>
     </row>
     <row r="29" spans="1:32" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="80"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="156"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="98"/>
     </row>
     <row r="30" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="62" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62" t="s">
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="62" t="s">
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="158"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="158"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="AF30" s="87"/>
+      <c r="AF30" s="159"/>
     </row>
     <row r="31" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="83"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150"/>
+      <c r="AD31" s="150"/>
+      <c r="AE31" s="150"/>
+      <c r="AF31" s="151"/>
     </row>
     <row r="32" spans="1:32" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="89"/>
-      <c r="AF32" s="90"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="161"/>
+      <c r="S32" s="161"/>
+      <c r="T32" s="161"/>
+      <c r="U32" s="161"/>
+      <c r="V32" s="161"/>
+      <c r="W32" s="161"/>
+      <c r="X32" s="161"/>
+      <c r="Y32" s="161"/>
+      <c r="Z32" s="161"/>
+      <c r="AA32" s="161"/>
+      <c r="AB32" s="161"/>
+      <c r="AC32" s="161"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="161"/>
+      <c r="AF32" s="162"/>
     </row>
     <row r="33" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="86"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="153"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="153"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="153"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="153"/>
+      <c r="AD33" s="153"/>
+      <c r="AE33" s="153"/>
+      <c r="AF33" s="154"/>
     </row>
     <row r="34" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="86"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="153"/>
+      <c r="W34" s="153"/>
+      <c r="X34" s="153"/>
+      <c r="Y34" s="153"/>
+      <c r="Z34" s="153"/>
+      <c r="AA34" s="153"/>
+      <c r="AB34" s="153"/>
+      <c r="AC34" s="153"/>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="154"/>
     </row>
     <row r="35" spans="1:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="77"/>
-      <c r="W35" s="77"/>
-      <c r="X35" s="77"/>
-      <c r="Y35" s="77"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="77"/>
-      <c r="AE35" s="77"/>
-      <c r="AF35" s="78"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="146"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="146"/>
+      <c r="Y35" s="146"/>
+      <c r="Z35" s="146"/>
+      <c r="AA35" s="146"/>
+      <c r="AB35" s="146"/>
+      <c r="AC35" s="146"/>
+      <c r="AD35" s="146"/>
+      <c r="AE35" s="146"/>
+      <c r="AF35" s="147"/>
       <c r="AG35" s="1"/>
     </row>
   </sheetData>
   <sheetProtection password="E914" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="136">
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="X28:AF28"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A24:C26"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A35:AF35"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="A31:AF31"/>
+    <mergeCell ref="A34:AF34"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A33:AF33"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="A32:AF32"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="AA2:AF3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="V4:AF4"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="V26:X26"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="T24:U24"/>
@@ -4133,124 +4243,12 @@
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
     <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="R15:S15"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="AD13:AE13"/>
     <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="AA2:AF3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="V4:AF4"/>
-    <mergeCell ref="A35:AF35"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="A31:AF31"/>
-    <mergeCell ref="A34:AF34"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A33:AF33"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="A32:AF32"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="X28:AF28"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A24:C26"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.28000000000000003" right="0.25" top="0.38" bottom="0.28000000000000003" header="0.38" footer="0.28000000000000003"/>
@@ -4260,34 +4258,6 @@
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -4301,6 +4271,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A1F4358E9ED3948AD7B44D432E80359" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9300fe825b5dae4cc8bdbf6153dfbde2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41a64cbd-5328-4ad9-90cb-599cad3d7574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0246e1c163168c8013a1814520976bb6" ns2:_="">
     <xsd:import namespace="41a64cbd-5328-4ad9-90cb-599cad3d7574"/>
@@ -4448,12 +4424,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DCB1E1-1573-4873-AFAD-9FFEB101D33D}">
   <ds:schemaRefs>
@@ -4463,6 +4433,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9890FC9F-E974-4CF6-8276-68EA71C3A315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="41a64cbd-5328-4ad9-90cb-599cad3d7574"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{148208EC-E453-4A4D-9CC3-73FE6DBD5A41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4478,20 +4464,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9890FC9F-E974-4CF6-8276-68EA71C3A315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="41a64cbd-5328-4ad9-90cb-599cad3d7574"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>